--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F10-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F10-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F3</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.9162785</v>
+        <v>2.3470525</v>
       </c>
       <c r="H2">
-        <v>9.832557</v>
+        <v>4.694105</v>
       </c>
       <c r="I2">
-        <v>0.1356009287365132</v>
+        <v>0.01514564315458329</v>
       </c>
       <c r="J2">
-        <v>0.09475238735603719</v>
+        <v>0.01014832976345966</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7414780000000001</v>
+        <v>1.769159</v>
       </c>
       <c r="N2">
-        <v>1.482956</v>
+        <v>3.538318</v>
       </c>
       <c r="O2">
-        <v>0.01573640779444115</v>
+        <v>0.02769615797570813</v>
       </c>
       <c r="P2">
-        <v>0.01066678136973736</v>
+        <v>0.0189365635786362</v>
       </c>
       <c r="Q2">
-        <v>3.645312349623</v>
+        <v>4.1523090538475</v>
       </c>
       <c r="R2">
-        <v>14.581249398492</v>
+        <v>16.60923621539</v>
       </c>
       <c r="S2">
-        <v>0.002133871511902725</v>
+        <v>0.0004194761254530413</v>
       </c>
       <c r="T2">
-        <v>0.001010703000187516</v>
+        <v>0.0001921744917827199</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.9162785</v>
+        <v>2.3470525</v>
       </c>
       <c r="H3">
-        <v>9.832557</v>
+        <v>4.694105</v>
       </c>
       <c r="I3">
-        <v>0.1356009287365132</v>
+        <v>0.01514564315458329</v>
       </c>
       <c r="J3">
-        <v>0.09475238735603719</v>
+        <v>0.01014832976345966</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>131.294375</v>
       </c>
       <c r="O3">
-        <v>0.9288213658468979</v>
+        <v>0.6851371661755414</v>
       </c>
       <c r="P3">
-        <v>0.9443897143282142</v>
+        <v>0.7026684090307325</v>
       </c>
       <c r="Q3">
-        <v>215.1599043278125</v>
+        <v>102.7182636932292</v>
       </c>
       <c r="R3">
-        <v>1290.959425966875</v>
+        <v>616.3095821593749</v>
       </c>
       <c r="S3">
-        <v>0.1259490398391561</v>
+        <v>0.01037684303083718</v>
       </c>
       <c r="T3">
-        <v>0.08948318002708426</v>
+        <v>0.007130910729209427</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.9162785</v>
+        <v>2.3470525</v>
       </c>
       <c r="H4">
-        <v>9.832557</v>
+        <v>4.694105</v>
       </c>
       <c r="I4">
-        <v>0.1356009287365132</v>
+        <v>0.01514564315458329</v>
       </c>
       <c r="J4">
-        <v>0.09475238735603719</v>
+        <v>0.01014832976345966</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.433046</v>
+        <v>0.6929270000000001</v>
       </c>
       <c r="N4">
-        <v>1.299138</v>
+        <v>2.078781</v>
       </c>
       <c r="O4">
-        <v>0.009190547055680088</v>
+        <v>0.01084776193526614</v>
       </c>
       <c r="P4">
-        <v>0.009344593511282777</v>
+        <v>0.01112533372426134</v>
       </c>
       <c r="Q4">
-        <v>2.128974739311</v>
+        <v>1.6263360476675</v>
       </c>
       <c r="R4">
-        <v>12.773848435866</v>
+        <v>9.758016286005001</v>
       </c>
       <c r="S4">
-        <v>0.001246246716346847</v>
+        <v>0.0001642963312974128</v>
       </c>
       <c r="T4">
-        <v>0.0008854225440657773</v>
+        <v>0.0001129035553623429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.9162785</v>
+        <v>2.3470525</v>
       </c>
       <c r="H5">
-        <v>9.832557</v>
+        <v>4.694105</v>
       </c>
       <c r="I5">
-        <v>0.1356009287365132</v>
+        <v>0.01514564315458329</v>
       </c>
       <c r="J5">
-        <v>0.09475238735603719</v>
+        <v>0.01014832976345966</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5887865</v>
+        <v>3.0119745</v>
       </c>
       <c r="N5">
-        <v>3.177573</v>
+        <v>6.023949</v>
       </c>
       <c r="O5">
-        <v>0.03371885917357341</v>
+        <v>0.04715241624455717</v>
       </c>
       <c r="P5">
-        <v>0.0228560230225175</v>
+        <v>0.03223929936002416</v>
       </c>
       <c r="Q5">
-        <v>7.810916911040249</v>
+        <v>7.069262280161249</v>
       </c>
       <c r="R5">
-        <v>31.243667644161</v>
+        <v>28.277049120645</v>
       </c>
       <c r="S5">
-        <v>0.004572308619872254</v>
+        <v>0.0007141536703164392</v>
       </c>
       <c r="T5">
-        <v>0.002165662746848082</v>
+        <v>0.000327175041248419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.9162785</v>
+        <v>2.3470525</v>
       </c>
       <c r="H6">
-        <v>9.832557</v>
+        <v>4.694105</v>
       </c>
       <c r="I6">
-        <v>0.1356009287365132</v>
+        <v>0.01514564315458329</v>
       </c>
       <c r="J6">
-        <v>0.09475238735603719</v>
+        <v>0.01014832976345966</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4786703333333334</v>
+        <v>14.16990633333334</v>
       </c>
       <c r="N6">
-        <v>1.436011</v>
+        <v>42.509719</v>
       </c>
       <c r="O6">
-        <v>0.01015883352497904</v>
+        <v>0.2218296740479444</v>
       </c>
       <c r="P6">
-        <v>0.01032910981953472</v>
+        <v>0.2275058365453471</v>
       </c>
       <c r="Q6">
-        <v>2.3532766683545</v>
+        <v>33.25751408441583</v>
       </c>
       <c r="R6">
-        <v>14.119660010127</v>
+        <v>199.545084506495</v>
       </c>
       <c r="S6">
-        <v>0.001377547260866784</v>
+        <v>0.003359753084227691</v>
       </c>
       <c r="T6">
-        <v>0.0009787078146636008</v>
+        <v>0.002308804252373934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.9162785</v>
+        <v>2.3470525</v>
       </c>
       <c r="H7">
-        <v>9.832557</v>
+        <v>4.694105</v>
       </c>
       <c r="I7">
-        <v>0.1356009287365132</v>
+        <v>0.01514564315458329</v>
       </c>
       <c r="J7">
-        <v>0.09475238735603719</v>
+        <v>0.01014832976345966</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.111859</v>
+        <v>0.4686573333333333</v>
       </c>
       <c r="N7">
-        <v>0.335577</v>
+        <v>1.405972</v>
       </c>
       <c r="O7">
-        <v>0.002373986604428442</v>
+        <v>0.007336823620982684</v>
       </c>
       <c r="P7">
-        <v>0.002413777948713486</v>
+        <v>0.007524557760998953</v>
       </c>
       <c r="Q7">
-        <v>0.5499299967315</v>
+        <v>1.099963365843333</v>
       </c>
       <c r="R7">
-        <v>3.299579980389</v>
+        <v>6.599780195059999</v>
       </c>
       <c r="S7">
-        <v>0.0003219147883685382</v>
+        <v>0.0001111209124515214</v>
       </c>
       <c r="T7">
-        <v>0.0002287112231879611</v>
+        <v>7.636169348281704E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.080078</v>
       </c>
       <c r="I8">
-        <v>0.00073623786578693</v>
+        <v>0.0001722490673632454</v>
       </c>
       <c r="J8">
-        <v>0.0007716793988274612</v>
+        <v>0.0001731230875317707</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7414780000000001</v>
+        <v>1.769159</v>
       </c>
       <c r="N8">
-        <v>1.482956</v>
+        <v>3.538318</v>
       </c>
       <c r="O8">
-        <v>0.01573640779444115</v>
+        <v>0.02769615797570813</v>
       </c>
       <c r="P8">
-        <v>0.01066678136973736</v>
+        <v>0.0189365635786362</v>
       </c>
       <c r="Q8">
-        <v>0.01979202509466667</v>
+        <v>0.04722357146733334</v>
       </c>
       <c r="R8">
-        <v>0.118752150568</v>
+        <v>0.283341428804</v>
       </c>
       <c r="S8">
-        <v>1.158573928973216E-05</v>
+        <v>4.770637380860838E-06</v>
       </c>
       <c r="T8">
-        <v>8.231335434822892E-06</v>
+        <v>3.278356353975176E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.080078</v>
       </c>
       <c r="I9">
-        <v>0.00073623786578693</v>
+        <v>0.0001722490673632454</v>
       </c>
       <c r="J9">
-        <v>0.0007716793988274612</v>
+        <v>0.0001731230875317707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>131.294375</v>
       </c>
       <c r="O9">
-        <v>0.9288213658468979</v>
+        <v>0.6851371661755414</v>
       </c>
       <c r="P9">
-        <v>0.9443897143282142</v>
+        <v>0.7026684090307325</v>
       </c>
       <c r="Q9">
         <v>1.168198995694445</v>
@@ -1013,10 +1013,10 @@
         <v>10.51379096125</v>
       </c>
       <c r="S9">
-        <v>0.0006838334600884215</v>
+        <v>0.0001180142378896339</v>
       </c>
       <c r="T9">
-        <v>0.0007287660870116342</v>
+        <v>0.0001216481244824376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>0.080078</v>
       </c>
       <c r="I10">
-        <v>0.00073623786578693</v>
+        <v>0.0001722490673632454</v>
       </c>
       <c r="J10">
-        <v>0.0007716793988274612</v>
+        <v>0.0001731230875317707</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.433046</v>
+        <v>0.6929270000000001</v>
       </c>
       <c r="N10">
-        <v>1.299138</v>
+        <v>2.078781</v>
       </c>
       <c r="O10">
-        <v>0.009190547055680088</v>
+        <v>0.01084776193526614</v>
       </c>
       <c r="P10">
-        <v>0.009344593511282777</v>
+        <v>0.01112533372426134</v>
       </c>
       <c r="Q10">
-        <v>0.01155915252933333</v>
+        <v>0.01849606943533334</v>
       </c>
       <c r="R10">
-        <v>0.104032372764</v>
+        <v>0.166464624918</v>
       </c>
       <c r="S10">
-        <v>6.766428749688261E-06</v>
+        <v>1.868516876328107E-06</v>
       </c>
       <c r="T10">
-        <v>7.211030303073688E-06</v>
+        <v>1.926052124165456E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.080078</v>
       </c>
       <c r="I11">
-        <v>0.00073623786578693</v>
+        <v>0.0001722490673632454</v>
       </c>
       <c r="J11">
-        <v>0.0007716793988274612</v>
+        <v>0.0001731230875317707</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.5887865</v>
+        <v>3.0119745</v>
       </c>
       <c r="N11">
-        <v>3.177573</v>
+        <v>6.023949</v>
       </c>
       <c r="O11">
-        <v>0.03371885917357341</v>
+        <v>0.04715241624455717</v>
       </c>
       <c r="P11">
-        <v>0.0228560230225175</v>
+        <v>0.03223929936002416</v>
       </c>
       <c r="Q11">
-        <v>0.042408948449</v>
+        <v>0.08039763133699999</v>
       </c>
       <c r="R11">
-        <v>0.254453690694</v>
+        <v>0.482385788022</v>
       </c>
       <c r="S11">
-        <v>2.482510091472174E-05</v>
+        <v>8.121959722048515E-06</v>
       </c>
       <c r="T11">
-        <v>1.763752210560292E-05</v>
+        <v>5.581367045068421E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.080078</v>
       </c>
       <c r="I12">
-        <v>0.00073623786578693</v>
+        <v>0.0001722490673632454</v>
       </c>
       <c r="J12">
-        <v>0.0007716793988274612</v>
+        <v>0.0001731230875317707</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4786703333333334</v>
+        <v>14.16990633333334</v>
       </c>
       <c r="N12">
-        <v>1.436011</v>
+        <v>42.509719</v>
       </c>
       <c r="O12">
-        <v>0.01015883352497904</v>
+        <v>0.2218296740479444</v>
       </c>
       <c r="P12">
-        <v>0.01032910981953472</v>
+        <v>0.2275058365453471</v>
       </c>
       <c r="Q12">
-        <v>0.01277698765088889</v>
+        <v>0.3782325864535556</v>
       </c>
       <c r="R12">
-        <v>0.114992888858</v>
+        <v>3.404093278082</v>
       </c>
       <c r="S12">
-        <v>7.479317913315282E-06</v>
+        <v>3.820995446825115E-05</v>
       </c>
       <c r="T12">
-        <v>7.970761255961376E-06</v>
+        <v>3.938651285422884E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,40 +1231,40 @@
         <v>0.080078</v>
       </c>
       <c r="I13">
-        <v>0.00073623786578693</v>
+        <v>0.0001722490673632454</v>
       </c>
       <c r="J13">
-        <v>0.0007716793988274612</v>
+        <v>0.0001731230875317707</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.111859</v>
+        <v>0.4686573333333333</v>
       </c>
       <c r="N13">
-        <v>0.335577</v>
+        <v>1.405972</v>
       </c>
       <c r="O13">
-        <v>0.002373986604428442</v>
+        <v>0.007336823620982684</v>
       </c>
       <c r="P13">
-        <v>0.002413777948713486</v>
+        <v>0.007524557760998953</v>
       </c>
       <c r="Q13">
-        <v>0.002985815000666667</v>
+        <v>0.01250971397955556</v>
       </c>
       <c r="R13">
-        <v>0.026872335006</v>
+        <v>0.112587425816</v>
       </c>
       <c r="S13">
-        <v>1.747818831051157E-06</v>
+        <v>1.263761026122897E-06</v>
       </c>
       <c r="T13">
-        <v>1.862662716366205E-06</v>
+        <v>1.302674671895286E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.06674633333333</v>
+        <v>53.133146</v>
       </c>
       <c r="H14">
-        <v>57.200239</v>
+        <v>159.399438</v>
       </c>
       <c r="I14">
-        <v>0.525899521514802</v>
+        <v>0.3428707576828275</v>
       </c>
       <c r="J14">
-        <v>0.5512156403045418</v>
+        <v>0.3446105404404338</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7414780000000001</v>
+        <v>1.769159</v>
       </c>
       <c r="N14">
-        <v>1.482956</v>
+        <v>3.538318</v>
       </c>
       <c r="O14">
-        <v>0.01573640779444115</v>
+        <v>0.02769615797570813</v>
       </c>
       <c r="P14">
-        <v>0.01066678136973736</v>
+        <v>0.0189365635786362</v>
       </c>
       <c r="Q14">
-        <v>14.13757293774733</v>
+        <v>94.00098344421401</v>
       </c>
       <c r="R14">
-        <v>84.825437626484</v>
+        <v>564.0059006652841</v>
       </c>
       <c r="S14">
-        <v>0.008275769329458399</v>
+        <v>0.009496202670034336</v>
       </c>
       <c r="T14">
-        <v>0.005879696722708339</v>
+        <v>0.006525739408918457</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.06674633333333</v>
+        <v>53.133146</v>
       </c>
       <c r="H15">
-        <v>57.200239</v>
+        <v>159.399438</v>
       </c>
       <c r="I15">
-        <v>0.525899521514802</v>
+        <v>0.3428707576828275</v>
       </c>
       <c r="J15">
-        <v>0.5512156403045418</v>
+        <v>0.3446105404404338</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>131.294375</v>
       </c>
       <c r="O15">
-        <v>0.9288213658468979</v>
+        <v>0.6851371661755414</v>
       </c>
       <c r="P15">
-        <v>0.9443897143282142</v>
+        <v>0.7026684090307325</v>
       </c>
       <c r="Q15">
-        <v>834.4521810395138</v>
+        <v>2325.361065284584</v>
       </c>
       <c r="R15">
-        <v>7510.069629355625</v>
+        <v>20928.24958756125</v>
       </c>
       <c r="S15">
-        <v>0.4884667118716084</v>
+        <v>0.2349134992832732</v>
       </c>
       <c r="T15">
-        <v>0.5205623810804499</v>
+        <v>0.2421469401865005</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.06674633333333</v>
+        <v>53.133146</v>
       </c>
       <c r="H16">
-        <v>57.200239</v>
+        <v>159.399438</v>
       </c>
       <c r="I16">
-        <v>0.525899521514802</v>
+        <v>0.3428707576828275</v>
       </c>
       <c r="J16">
-        <v>0.5512156403045418</v>
+        <v>0.3446105404404338</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.433046</v>
+        <v>0.6929270000000001</v>
       </c>
       <c r="N16">
-        <v>1.299138</v>
+        <v>2.078781</v>
       </c>
       <c r="O16">
-        <v>0.009190547055680088</v>
+        <v>0.01084776193526614</v>
       </c>
       <c r="P16">
-        <v>0.009344593511282777</v>
+        <v>0.01112533372426134</v>
       </c>
       <c r="Q16">
-        <v>8.256778232664667</v>
+        <v>36.81739145834201</v>
       </c>
       <c r="R16">
-        <v>74.31100409398201</v>
+        <v>331.356523125078</v>
       </c>
       <c r="S16">
-        <v>0.004833304299041431</v>
+        <v>0.003719380353907638</v>
       </c>
       <c r="T16">
-        <v>0.005150886095707402</v>
+        <v>0.003833907267297885</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,14 +1458,14 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.06674633333333</v>
+        <v>53.133146</v>
       </c>
       <c r="H17">
-        <v>57.200239</v>
+        <v>159.399438</v>
       </c>
       <c r="I17">
-        <v>0.525899521514802</v>
+        <v>0.3428707576828275</v>
       </c>
       <c r="J17">
-        <v>0.5512156403045418</v>
+        <v>0.3446105404404338</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.5887865</v>
+        <v>3.0119745</v>
       </c>
       <c r="N17">
-        <v>3.177573</v>
+        <v>6.023949</v>
       </c>
       <c r="O17">
-        <v>0.03371885917357341</v>
+        <v>0.04715241624455717</v>
       </c>
       <c r="P17">
-        <v>0.0228560230225175</v>
+        <v>0.03223929936002416</v>
       </c>
       <c r="Q17">
-        <v>30.29298917332449</v>
+        <v>160.035680856777</v>
       </c>
       <c r="R17">
-        <v>181.757935039947</v>
+        <v>960.2140851406621</v>
       </c>
       <c r="S17">
-        <v>0.01773273190540725</v>
+        <v>0.01616718468434738</v>
       </c>
       <c r="T17">
-        <v>0.01259859736517233</v>
+        <v>0.01111000237587886</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.06674633333333</v>
+        <v>53.133146</v>
       </c>
       <c r="H18">
-        <v>57.200239</v>
+        <v>159.399438</v>
       </c>
       <c r="I18">
-        <v>0.525899521514802</v>
+        <v>0.3428707576828275</v>
       </c>
       <c r="J18">
-        <v>0.5512156403045418</v>
+        <v>0.3446105404404338</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.4786703333333334</v>
+        <v>14.16990633333334</v>
       </c>
       <c r="N18">
-        <v>1.436011</v>
+        <v>42.509719</v>
       </c>
       <c r="O18">
-        <v>0.01015883352497904</v>
+        <v>0.2218296740479444</v>
       </c>
       <c r="P18">
-        <v>0.01032910981953472</v>
+        <v>0.2275058365453471</v>
       </c>
       <c r="Q18">
-        <v>9.126685822958777</v>
+        <v>752.8917020153248</v>
       </c>
       <c r="R18">
-        <v>82.14017240662901</v>
+        <v>6776.025318137923</v>
       </c>
       <c r="S18">
-        <v>0.005342525689935006</v>
+        <v>0.07605890841735335</v>
       </c>
       <c r="T18">
-        <v>0.005693566882950759</v>
+        <v>0.07840090928524505</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.06674633333333</v>
+        <v>53.133146</v>
       </c>
       <c r="H19">
-        <v>57.200239</v>
+        <v>159.399438</v>
       </c>
       <c r="I19">
-        <v>0.525899521514802</v>
+        <v>0.3428707576828275</v>
       </c>
       <c r="J19">
-        <v>0.5512156403045418</v>
+        <v>0.3446105404404338</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.111859</v>
+        <v>0.4686573333333333</v>
       </c>
       <c r="N19">
-        <v>0.335577</v>
+        <v>1.405972</v>
       </c>
       <c r="O19">
-        <v>0.002373986604428442</v>
+        <v>0.007336823620982684</v>
       </c>
       <c r="P19">
-        <v>0.002413777948713486</v>
+        <v>0.007524557760998953</v>
       </c>
       <c r="Q19">
-        <v>2.132787178100333</v>
+        <v>24.90123851597067</v>
       </c>
       <c r="R19">
-        <v>19.195084602903</v>
+        <v>224.111146643736</v>
       </c>
       <c r="S19">
-        <v>0.001248478419351467</v>
+        <v>0.002515582273911599</v>
       </c>
       <c r="T19">
-        <v>0.001330512157553088</v>
+        <v>0.00259304191659311</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.079126</v>
+        <v>86.402565</v>
       </c>
       <c r="H20">
-        <v>0.158252</v>
+        <v>259.207695</v>
       </c>
       <c r="I20">
-        <v>0.002182455507190113</v>
+        <v>0.5575599255366839</v>
       </c>
       <c r="J20">
-        <v>0.001525010717341135</v>
+        <v>0.560389076530302</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7414780000000001</v>
+        <v>1.769159</v>
       </c>
       <c r="N20">
-        <v>1.482956</v>
+        <v>3.538318</v>
       </c>
       <c r="O20">
-        <v>0.01573640779444115</v>
+        <v>0.02769615797570813</v>
       </c>
       <c r="P20">
-        <v>0.01066678136973736</v>
+        <v>0.0189365635786362</v>
       </c>
       <c r="Q20">
-        <v>0.05867018822800001</v>
+        <v>152.859875492835</v>
       </c>
       <c r="R20">
-        <v>0.234680752912</v>
+        <v>917.15925295701</v>
       </c>
       <c r="S20">
-        <v>3.43440098543675E-05</v>
+        <v>0.01544226777858806</v>
       </c>
       <c r="T20">
-        <v>1.626695590838423E-05</v>
+        <v>0.01061184337648929</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.079126</v>
+        <v>86.402565</v>
       </c>
       <c r="H21">
-        <v>0.158252</v>
+        <v>259.207695</v>
       </c>
       <c r="I21">
-        <v>0.002182455507190113</v>
+        <v>0.5575599255366839</v>
       </c>
       <c r="J21">
-        <v>0.001525010717341135</v>
+        <v>0.560389076530302</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>131.294375</v>
       </c>
       <c r="O21">
-        <v>0.9288213658468979</v>
+        <v>0.6851371661755414</v>
       </c>
       <c r="P21">
-        <v>0.9443897143282142</v>
+        <v>0.7026684090307325</v>
       </c>
       <c r="Q21">
-        <v>3.462932905416667</v>
+        <v>3781.390256690625</v>
       </c>
       <c r="R21">
-        <v>20.7775974325</v>
+        <v>34032.51231021563</v>
       </c>
       <c r="S21">
-        <v>0.002027111305088405</v>
+        <v>0.3820050273552495</v>
       </c>
       <c r="T21">
-        <v>0.00144020443569726</v>
+        <v>0.3937677008437487</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.079126</v>
+        <v>86.402565</v>
       </c>
       <c r="H22">
-        <v>0.158252</v>
+        <v>259.207695</v>
       </c>
       <c r="I22">
-        <v>0.002182455507190113</v>
+        <v>0.5575599255366839</v>
       </c>
       <c r="J22">
-        <v>0.001525010717341135</v>
+        <v>0.560389076530302</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.433046</v>
+        <v>0.6929270000000001</v>
       </c>
       <c r="N22">
-        <v>1.299138</v>
+        <v>2.078781</v>
       </c>
       <c r="O22">
-        <v>0.009190547055680088</v>
+        <v>0.01084776193526614</v>
       </c>
       <c r="P22">
-        <v>0.009344593511282777</v>
+        <v>0.01112533372426134</v>
       </c>
       <c r="Q22">
-        <v>0.03426519779600001</v>
+        <v>59.870670157755</v>
       </c>
       <c r="R22">
-        <v>0.205591186776</v>
+        <v>538.8360314197951</v>
       </c>
       <c r="S22">
-        <v>2.005796003575889E-05</v>
+        <v>0.006048277336866663</v>
       </c>
       <c r="T22">
-        <v>1.425060525390266E-05</v>
+        <v>0.006234515491830238</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.079126</v>
+        <v>86.402565</v>
       </c>
       <c r="H23">
-        <v>0.158252</v>
+        <v>259.207695</v>
       </c>
       <c r="I23">
-        <v>0.002182455507190113</v>
+        <v>0.5575599255366839</v>
       </c>
       <c r="J23">
-        <v>0.001525010717341135</v>
+        <v>0.560389076530302</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.5887865</v>
+        <v>3.0119745</v>
       </c>
       <c r="N23">
-        <v>3.177573</v>
+        <v>6.023949</v>
       </c>
       <c r="O23">
-        <v>0.03371885917357341</v>
+        <v>0.04715241624455717</v>
       </c>
       <c r="P23">
-        <v>0.0228560230225175</v>
+        <v>0.03223929936002416</v>
       </c>
       <c r="Q23">
-        <v>0.125714320599</v>
+        <v>260.2423225145925</v>
       </c>
       <c r="R23">
-        <v>0.502857282396</v>
+        <v>1561.453935087555</v>
       </c>
       <c r="S23">
-        <v>7.358990989953315E-05</v>
+        <v>0.02629029769019002</v>
       </c>
       <c r="T23">
-        <v>3.485568006513491E-05</v>
+        <v>0.01806655119634789</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.079126</v>
+        <v>86.402565</v>
       </c>
       <c r="H24">
-        <v>0.158252</v>
+        <v>259.207695</v>
       </c>
       <c r="I24">
-        <v>0.002182455507190113</v>
+        <v>0.5575599255366839</v>
       </c>
       <c r="J24">
-        <v>0.001525010717341135</v>
+        <v>0.560389076530302</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.4786703333333334</v>
+        <v>14.16990633333334</v>
       </c>
       <c r="N24">
-        <v>1.436011</v>
+        <v>42.509719</v>
       </c>
       <c r="O24">
-        <v>0.01015883352497904</v>
+        <v>0.2218296740479444</v>
       </c>
       <c r="P24">
-        <v>0.01032910981953472</v>
+        <v>0.2275058365453471</v>
       </c>
       <c r="Q24">
-        <v>0.03787526879533334</v>
+        <v>1224.316253009745</v>
       </c>
       <c r="R24">
-        <v>0.227251612772</v>
+        <v>11018.84627708771</v>
       </c>
       <c r="S24">
-        <v>2.217120217321805E-05</v>
+        <v>0.1236833365439987</v>
       </c>
       <c r="T24">
-        <v>1.5752003175384E-05</v>
+        <v>0.1274917856469009</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.079126</v>
+        <v>86.402565</v>
       </c>
       <c r="H25">
-        <v>0.158252</v>
+        <v>259.207695</v>
       </c>
       <c r="I25">
-        <v>0.002182455507190113</v>
+        <v>0.5575599255366839</v>
       </c>
       <c r="J25">
-        <v>0.001525010717341135</v>
+        <v>0.560389076530302</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.111859</v>
+        <v>0.4686573333333333</v>
       </c>
       <c r="N25">
-        <v>0.335577</v>
+        <v>1.405972</v>
       </c>
       <c r="O25">
-        <v>0.002373986604428442</v>
+        <v>0.007336823620982684</v>
       </c>
       <c r="P25">
-        <v>0.002413777948713486</v>
+        <v>0.007524557760998953</v>
       </c>
       <c r="Q25">
-        <v>0.008850955234000001</v>
+        <v>40.49319570606</v>
       </c>
       <c r="R25">
-        <v>0.053105731404</v>
+        <v>364.43876135454</v>
       </c>
       <c r="S25">
-        <v>5.181120138830408E-06</v>
+        <v>0.004090718831790889</v>
       </c>
       <c r="T25">
-        <v>3.681037241069766E-06</v>
+        <v>0.004216679974985121</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.778042</v>
+        <v>13.056066</v>
       </c>
       <c r="H26">
-        <v>5.334125999999999</v>
+        <v>39.168198</v>
       </c>
       <c r="I26">
-        <v>0.0490420033227425</v>
+        <v>0.08425142455854209</v>
       </c>
       <c r="J26">
-        <v>0.0514028215608523</v>
+        <v>0.08467893017827276</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.7414780000000001</v>
+        <v>1.769159</v>
       </c>
       <c r="N26">
-        <v>1.482956</v>
+        <v>3.538318</v>
       </c>
       <c r="O26">
-        <v>0.01573640779444115</v>
+        <v>0.02769615797570813</v>
       </c>
       <c r="P26">
-        <v>0.01066678136973736</v>
+        <v>0.0189365635786362</v>
       </c>
       <c r="Q26">
-        <v>1.318379026076</v>
+        <v>23.098256668494</v>
       </c>
       <c r="R26">
-        <v>7.910274156456</v>
+        <v>138.589540010964</v>
       </c>
       <c r="S26">
-        <v>0.0007717449633430136</v>
+        <v>0.002333440764251838</v>
       </c>
       <c r="T26">
-        <v>0.0005483026593772334</v>
+        <v>0.001603527945091758</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.778042</v>
+        <v>13.056066</v>
       </c>
       <c r="H27">
-        <v>5.334125999999999</v>
+        <v>39.168198</v>
       </c>
       <c r="I27">
-        <v>0.0490420033227425</v>
+        <v>0.08425142455854209</v>
       </c>
       <c r="J27">
-        <v>0.0514028215608523</v>
+        <v>0.08467893017827276</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>131.294375</v>
       </c>
       <c r="O27">
-        <v>0.9288213658468979</v>
+        <v>0.6851371661755414</v>
       </c>
       <c r="P27">
-        <v>0.9443897143282142</v>
+        <v>0.7026684090307325</v>
       </c>
       <c r="Q27">
-        <v>77.81563770458332</v>
+        <v>571.39600847625</v>
       </c>
       <c r="R27">
-        <v>700.3407393412499</v>
+        <v>5142.564076286249</v>
       </c>
       <c r="S27">
-        <v>0.04555126051009779</v>
+        <v>0.05772378226829195</v>
       </c>
       <c r="T27">
-        <v>0.04854429596951747</v>
+        <v>0.0595012091467914</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.778042</v>
+        <v>13.056066</v>
       </c>
       <c r="H28">
-        <v>5.334125999999999</v>
+        <v>39.168198</v>
       </c>
       <c r="I28">
-        <v>0.0490420033227425</v>
+        <v>0.08425142455854209</v>
       </c>
       <c r="J28">
-        <v>0.0514028215608523</v>
+        <v>0.08467893017827276</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.433046</v>
+        <v>0.6929270000000001</v>
       </c>
       <c r="N28">
-        <v>1.299138</v>
+        <v>2.078781</v>
       </c>
       <c r="O28">
-        <v>0.009190547055680088</v>
+        <v>0.01084776193526614</v>
       </c>
       <c r="P28">
-        <v>0.009344593511282777</v>
+        <v>0.01112533372426134</v>
       </c>
       <c r="Q28">
-        <v>0.769973975932</v>
+        <v>9.046900645182001</v>
       </c>
       <c r="R28">
-        <v>6.929765783388</v>
+        <v>81.422105806638</v>
       </c>
       <c r="S28">
-        <v>0.0004507228392424842</v>
+        <v>0.0009139393963180999</v>
       </c>
       <c r="T28">
-        <v>0.0004803384728191668</v>
+        <v>0.0009420813576467093</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,14 +2202,14 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
       <c r="E29">
         <v>3</v>
       </c>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.778042</v>
+        <v>13.056066</v>
       </c>
       <c r="H29">
-        <v>5.334125999999999</v>
+        <v>39.168198</v>
       </c>
       <c r="I29">
-        <v>0.0490420033227425</v>
+        <v>0.08425142455854209</v>
       </c>
       <c r="J29">
-        <v>0.0514028215608523</v>
+        <v>0.08467893017827276</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.5887865</v>
+        <v>3.0119745</v>
       </c>
       <c r="N29">
-        <v>3.177573</v>
+        <v>6.023949</v>
       </c>
       <c r="O29">
-        <v>0.03371885917357341</v>
+        <v>0.04715241624455717</v>
       </c>
       <c r="P29">
-        <v>0.0228560230225175</v>
+        <v>0.03223929936002416</v>
       </c>
       <c r="Q29">
-        <v>2.824929126033</v>
+        <v>39.324537862317</v>
       </c>
       <c r="R29">
-        <v>16.949574756198</v>
+        <v>235.947227173902</v>
       </c>
       <c r="S29">
-        <v>0.001653640403629474</v>
+        <v>0.003972658239981283</v>
       </c>
       <c r="T29">
-        <v>0.001174864073017199</v>
+        <v>0.002729989379503919</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.778042</v>
+        <v>13.056066</v>
       </c>
       <c r="H30">
-        <v>5.334125999999999</v>
+        <v>39.168198</v>
       </c>
       <c r="I30">
-        <v>0.0490420033227425</v>
+        <v>0.08425142455854209</v>
       </c>
       <c r="J30">
-        <v>0.0514028215608523</v>
+        <v>0.08467893017827276</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.4786703333333334</v>
+        <v>14.16990633333334</v>
       </c>
       <c r="N30">
-        <v>1.436011</v>
+        <v>42.509719</v>
       </c>
       <c r="O30">
-        <v>0.01015883352497904</v>
+        <v>0.2218296740479444</v>
       </c>
       <c r="P30">
-        <v>0.01032910981953472</v>
+        <v>0.2275058365453471</v>
       </c>
       <c r="Q30">
-        <v>0.8510959568206666</v>
+        <v>185.003232301818</v>
       </c>
       <c r="R30">
-        <v>7.659863611386</v>
+        <v>1665.029090716362</v>
       </c>
       <c r="S30">
-        <v>0.0004982095474872099</v>
+        <v>0.01868946604789637</v>
       </c>
       <c r="T30">
-        <v>0.0005309453889359903</v>
+        <v>0.01926495084797298</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.778042</v>
+        <v>13.056066</v>
       </c>
       <c r="H31">
-        <v>5.334125999999999</v>
+        <v>39.168198</v>
       </c>
       <c r="I31">
-        <v>0.0490420033227425</v>
+        <v>0.08425142455854209</v>
       </c>
       <c r="J31">
-        <v>0.0514028215608523</v>
+        <v>0.08467893017827276</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.111859</v>
+        <v>0.4686573333333333</v>
       </c>
       <c r="N31">
-        <v>0.335577</v>
+        <v>1.405972</v>
       </c>
       <c r="O31">
-        <v>0.002373986604428442</v>
+        <v>0.007336823620982684</v>
       </c>
       <c r="P31">
-        <v>0.002413777948713486</v>
+        <v>0.007524557760998953</v>
       </c>
       <c r="Q31">
-        <v>0.198890000078</v>
+        <v>6.118821075383999</v>
       </c>
       <c r="R31">
-        <v>1.790010000702</v>
+        <v>55.069389678456</v>
       </c>
       <c r="S31">
-        <v>0.0001164250589425258</v>
+        <v>0.0006181378418025522</v>
       </c>
       <c r="T31">
-        <v>0.0001240749971852394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>10.38860733333333</v>
-      </c>
-      <c r="H32">
-        <v>31.165822</v>
-      </c>
-      <c r="I32">
-        <v>0.2865388530529652</v>
-      </c>
-      <c r="J32">
-        <v>0.3003324606624</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.7414780000000001</v>
-      </c>
-      <c r="N32">
-        <v>1.482956</v>
-      </c>
-      <c r="O32">
-        <v>0.01573640779444115</v>
-      </c>
-      <c r="P32">
-        <v>0.01066678136973736</v>
-      </c>
-      <c r="Q32">
-        <v>7.702923788305334</v>
-      </c>
-      <c r="R32">
-        <v>46.217542729832</v>
-      </c>
-      <c r="S32">
-        <v>0.004509092240592908</v>
-      </c>
-      <c r="T32">
-        <v>0.003203580696121068</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>10.38860733333333</v>
-      </c>
-      <c r="H33">
-        <v>31.165822</v>
-      </c>
-      <c r="I33">
-        <v>0.2865388530529652</v>
-      </c>
-      <c r="J33">
-        <v>0.3003324606624</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>43.76479166666667</v>
-      </c>
-      <c r="N33">
-        <v>131.294375</v>
-      </c>
-      <c r="O33">
-        <v>0.9288213658468979</v>
-      </c>
-      <c r="P33">
-        <v>0.9443897143282142</v>
-      </c>
-      <c r="Q33">
-        <v>454.6552356501389</v>
-      </c>
-      <c r="R33">
-        <v>4091.89712085125</v>
-      </c>
-      <c r="S33">
-        <v>0.2661434088608587</v>
-      </c>
-      <c r="T33">
-        <v>0.2836308867284535</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>10.38860733333333</v>
-      </c>
-      <c r="H34">
-        <v>31.165822</v>
-      </c>
-      <c r="I34">
-        <v>0.2865388530529652</v>
-      </c>
-      <c r="J34">
-        <v>0.3003324606624</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.433046</v>
-      </c>
-      <c r="N34">
-        <v>1.299138</v>
-      </c>
-      <c r="O34">
-        <v>0.009190547055680088</v>
-      </c>
-      <c r="P34">
-        <v>0.009344593511282777</v>
-      </c>
-      <c r="Q34">
-        <v>4.498744851270667</v>
-      </c>
-      <c r="R34">
-        <v>40.48870366143601</v>
-      </c>
-      <c r="S34">
-        <v>0.002633448812263879</v>
-      </c>
-      <c r="T34">
-        <v>0.002806484763133453</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>10.38860733333333</v>
-      </c>
-      <c r="H35">
-        <v>31.165822</v>
-      </c>
-      <c r="I35">
-        <v>0.2865388530529652</v>
-      </c>
-      <c r="J35">
-        <v>0.3003324606624</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.5887865</v>
-      </c>
-      <c r="N35">
-        <v>3.177573</v>
-      </c>
-      <c r="O35">
-        <v>0.03371885917357341</v>
-      </c>
-      <c r="P35">
-        <v>0.0228560230225175</v>
-      </c>
-      <c r="Q35">
-        <v>16.505279085001</v>
-      </c>
-      <c r="R35">
-        <v>99.03167451000598</v>
-      </c>
-      <c r="S35">
-        <v>0.009661763233850179</v>
-      </c>
-      <c r="T35">
-        <v>0.006864405635309146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>10.38860733333333</v>
-      </c>
-      <c r="H36">
-        <v>31.165822</v>
-      </c>
-      <c r="I36">
-        <v>0.2865388530529652</v>
-      </c>
-      <c r="J36">
-        <v>0.3003324606624</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.4786703333333334</v>
-      </c>
-      <c r="N36">
-        <v>1.436011</v>
-      </c>
-      <c r="O36">
-        <v>0.01015883352497904</v>
-      </c>
-      <c r="P36">
-        <v>0.01032910981953472</v>
-      </c>
-      <c r="Q36">
-        <v>4.972718135115778</v>
-      </c>
-      <c r="R36">
-        <v>44.75446321604201</v>
-      </c>
-      <c r="S36">
-        <v>0.002910900506603505</v>
-      </c>
-      <c r="T36">
-        <v>0.003102166968553019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>10.38860733333333</v>
-      </c>
-      <c r="H37">
-        <v>31.165822</v>
-      </c>
-      <c r="I37">
-        <v>0.2865388530529652</v>
-      </c>
-      <c r="J37">
-        <v>0.3003324606624</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.111859</v>
-      </c>
-      <c r="N37">
-        <v>0.335577</v>
-      </c>
-      <c r="O37">
-        <v>0.002373986604428442</v>
-      </c>
-      <c r="P37">
-        <v>0.002413777948713486</v>
-      </c>
-      <c r="Q37">
-        <v>1.162059227699333</v>
-      </c>
-      <c r="R37">
-        <v>10.458533049294</v>
-      </c>
-      <c r="S37">
-        <v>0.0006802393987960291</v>
-      </c>
-      <c r="T37">
-        <v>0.0007249358708297615</v>
+        <v>0.0006371715012660108</v>
       </c>
     </row>
   </sheetData>
